--- a/docs/PTA2_DDC_100/PTA2_DDC_100_12.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731785890.663239</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731785900.8398778</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785890.663239.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785900.8398778.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.31</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.53</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.7800000000000011</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731785902.8852727</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731785904.9371507</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785902.8852727.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785904.9371507.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>134.94</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.22</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731785905.7709002</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731785905.7709002.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731785905.7709002.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.58</v>
       </c>
-      <c r="J5" t="n">
-        <v>135.58</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>135.34</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731785906.816778</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731785909.847485</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785906.816778.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785909.847485.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7027.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7023</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>4.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731785912.712993</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731785917.5561328</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785912.712993.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785917.5561328.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7013</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7016.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>3.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731785918.7535326</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731785923.517894</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785918.7535326.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785923.517894.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6997.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7005.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>8</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -843,95 +895,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731785925.8195238</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731785925.8195238.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731785925.8195238.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7009.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>7009.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>7006.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731785927.195348</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731785931.0930188</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785927.195348.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785931.0930188.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>489.9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>490.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731785934.9391203</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731785941.5699334</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785934.9391203.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785941.5699334.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>490.15</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>488.8</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.349999999999966</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -991,95 +1061,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731785943.0898595</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731785943.0898595.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731785943.0898595.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>486.15</v>
       </c>
-      <c r="J12" t="n">
-        <v>486.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>484.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.649999999999977</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731785947.1882217</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731785952.3683589</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785947.1882217.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785952.3683589.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>940.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>944</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-3.600000000000023</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1087,51 +1169,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731785954.0720458</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731785960.0190701</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785954.0720458.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785960.0190701.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>940.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>937.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-3.199999999999932</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -1139,95 +1227,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731785964.3367121</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731785964.3367121.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731785964.3367121.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>937.4</v>
       </c>
-      <c r="J15" t="n">
-        <v>937.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>935.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.600000000000023</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731785964.8777447</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731785972.6271074</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785964.8777447.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785972.6271074.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>37.915</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>38.025</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1235,51 +1335,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731785973.9883258</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731785981.214746</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785973.9883258.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785981.214746.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>38.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>38.12</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1287,51 +1393,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731785982.4583368</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731785983.64066</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785982.4583368.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785983.64066.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>38.04</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>38.11</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1339,51 +1451,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731785992.491785</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731785993.6106052</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785992.491785.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785993.6106052.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1241.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1244.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1391,51 +1509,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731785994.0875092</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731785995.3370867</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785994.0875092.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785995.3370867.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1240.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1244.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>4.399999999999864</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1443,51 +1567,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731785998.0129497</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731786001.9458804</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785998.0129497.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786001.9458804.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1235</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1237.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1495,51 +1625,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731786006.240033</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731786008.1457891</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786006.240033.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786008.1457891.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>81.22</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>81.03</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1547,51 +1683,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731786011.187867</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731786018.724751</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786011.187867.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786018.724751.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>80.84999999999999</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>80.62</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.2299999999999898</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -1599,95 +1741,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731786022.3013823</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731786022.3013823.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731786022.3013823.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>80.77</v>
       </c>
-      <c r="J24" t="n">
-        <v>80.77</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731786028.194265</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731786029.6170762</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786028.194265.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786029.6170762.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>14.58</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>14.47</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -1695,51 +1849,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731786030.9677198</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731786031.873623</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786030.9677198.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786031.873623.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>14.407</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>14.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.09299999999999997</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -1747,51 +1907,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731786033.0514138</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731786033.7836063</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786033.0514138.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786033.7836063.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>14.4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>14.497</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.09699999999999953</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731786036.0451648</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731786041.9186149</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786036.0451648.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786041.9186149.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>14.386</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>14.399</v>
       </c>
-      <c r="K28" t="n">
-        <v>0.01300000000000168</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
+        <v>0.0129999999999999</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731786043.4768836</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731786044.0473194</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786043.4768836.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786044.0473194.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>106.43</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>107.16</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.7299999999999898</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731786045.0935209</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731786046.1688895</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786045.0935209.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786046.1688895.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>107.3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>106.86</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1955,51 +2139,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731786052.3820622</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731786057.464043</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786052.3820622.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786057.464043.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>106.64</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>106.32</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.3200000000000074</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -2007,51 +2197,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731786067.6104867</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731786069.052861</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731786067.6104867.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731786069.052861.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>350.35</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>349.76</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5900000000000318</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2059,95 +2255,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731786073.5450528</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731786073.5450528.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731786073.5450528.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>348.73</v>
       </c>
-      <c r="J33" t="n">
-        <v>348.73</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>347.25</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-1.480000000000018</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731786081.7132998</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731786082.6635292</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786081.7132998.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786082.6635292.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>2799</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>2790.45</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>8.550000000000182</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2155,51 +2363,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731786086.486204</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731786091.1571586</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786086.486204.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786091.1571586.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>2783.5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>2786.35</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>2.849999999999909</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2207,51 +2421,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731786092.6639037</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731786094.9494371</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786092.6639037.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786094.9494371.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>2776.05</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>2783.9</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>7.849999999999909</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2259,51 +2479,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731786100.8090527</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731786102.7640734</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786100.8090527.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786102.7640734.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>599.1</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>596.3</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2311,51 +2537,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731786103.619109</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731786108.8766181</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786103.619109.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786108.8766181.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>595.7</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>594</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-1.700000000000045</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2363,51 +2595,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731786110.670168</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731786113.123514</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786110.670168.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786113.123514.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>595</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>593.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2415,44 +2653,50 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731786115.7841861</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731786115.7841861.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731786115.7841861.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>592.4</v>
       </c>
-      <c r="J40" t="n">
-        <v>592.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>588.8</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-3.600000000000023</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -2513,13 +2757,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3130000000000006</v>
+        <v>0.3129999999999988</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07825000000000015</v>
+        <v>0.07824999999999971</v>
       </c>
       <c r="E2" t="n">
         <v>2.16</v>
@@ -2535,16 +2779,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="E3" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="F3" t="n">
         <v>0.06</v>
@@ -2557,19 +2801,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.5</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.625</v>
+        <v>-0.2750000000000057</v>
       </c>
       <c r="E4" t="n">
-        <v>0.42</v>
+        <v>-0.1899999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="5">
@@ -2601,19 +2845,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.08666666666666363</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3600000000000001</v>
+        <v>-0.1800000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.12</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="7">
@@ -2689,19 +2933,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.799999999999955</v>
+        <v>-5.199999999999932</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.266666666666652</v>
+        <v>-1.733333333333311</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.72</v>
+        <v>-0.55</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.24</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2955,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.849999999999966</v>
+        <v>-3.499999999999943</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6166666666666553</v>
+        <v>-1.166666666666648</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3799999999999999</v>
+        <v>-0.72</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.13</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="12">
@@ -2733,19 +2977,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03999999999999204</v>
+        <v>-0.2299999999999898</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01333333333333068</v>
+        <v>-0.07666666666666326</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-0.29</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="13">
@@ -2755,19 +2999,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5900000000000318</v>
+        <v>-0.8899999999999864</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2950000000000159</v>
+        <v>-0.4449999999999932</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
